--- a/medicine/Médecine vétérinaire/Liste_de_maladies_des_félins/Liste_de_maladies_des_félins.xlsx
+++ b/medicine/Médecine vétérinaire/Liste_de_maladies_des_félins/Liste_de_maladies_des_félins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste de maladies touchant les félins est classée par ordre alphabétique.
 Contre certaines de ces maladies, des vaccins ont été mis au point.
@@ -524,7 +536,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,12 +554,14 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acné féline (Acné féline (en))
 Amylose : maladie héréditaire affectant notamment le Chat à pieds noirs.
 Anaplasmose : transmise par la tique.
-Aspergillose[1]</t>
+Aspergillose</t>
         </is>
       </c>
     </row>
@@ -557,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,7 +589,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Borréliose féline : transmise par la tique, provoque fièvre, perte d'appétit puis paralysie.</t>
         </is>
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Calcivirale féline
 Calicivirus félin
@@ -614,7 +632,7 @@
 Chlamydiose féline
 Conjonctivite du chat
 Coronavirus félin
-Maladie à coronavirus 2019 touchant 15% des chats de la ville de Wuhan[2]
+Maladie à coronavirus 2019 touchant 15% des chats de la ville de Wuhan
 Coryza du chat
 Cystite féline idiopathique (en)</t>
         </is>
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +662,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Diabète félin
 Dermatite d'allergie aux puces (en)</t>
@@ -657,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,7 +695,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Échinococcose
 Encéphalite
@@ -690,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -708,7 +730,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>FeLV ou Leucose féline
 Fièvre hémorragique de Crimée-Congo
@@ -727,7 +751,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -745,7 +769,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gale auriculaire ou Octacariose, ou otite auriculaire
 Gingivite
@@ -761,7 +787,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -779,7 +805,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Hémobartonellose féline
 Hyperthyroïdie</t>
@@ -792,7 +820,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -810,7 +838,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Insuffisance rénale</t>
         </is>
@@ -822,7 +852,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -840,7 +870,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Leucémie féline ou Leucose féline (ou FeLV)
 Lipidose hépatique
@@ -854,7 +886,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -872,7 +904,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Maladies du bas appareil urinaire félin</t>
         </is>
@@ -884,7 +918,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -902,7 +936,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Ostéofibrose</t>
         </is>
@@ -914,7 +950,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -932,7 +968,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Péritonite infectieuse féline (ou PIF)
 Panleucopénie féline (ou Typhus du chat)
@@ -948,7 +986,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -966,7 +1004,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Rage
 Rickettsiose
@@ -980,7 +1020,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,7 +1038,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Syndrome asthmatiforme félin
 Syndrome d'hyperesthésie féline (en)
@@ -1013,7 +1055,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1031,7 +1073,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Toxoplasmose
 Tuberculose
@@ -1047,7 +1091,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_maladies_des_f%C3%A9lins</t>
+          <t>Liste_de_maladies_des_félins</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1065,7 +1109,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Uvéite</t>
         </is>
